--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pla2g10-Pla2r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pla2g10-Pla2r1.xlsx
@@ -540,40 +540,40 @@
         <v>0.213912</v>
       </c>
       <c r="I2">
-        <v>0.2697925022323793</v>
+        <v>0.4698873783336738</v>
       </c>
       <c r="J2">
-        <v>0.2697925022323793</v>
+        <v>0.4698873783336738</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9462956666666668</v>
+        <v>0.4009296666666667</v>
       </c>
       <c r="N2">
-        <v>2.838887</v>
+        <v>1.202789</v>
       </c>
       <c r="O2">
-        <v>0.0581480725973275</v>
+        <v>0.01991582391091379</v>
       </c>
       <c r="P2">
-        <v>0.0581480725973275</v>
+        <v>0.01991582391091379</v>
       </c>
       <c r="Q2">
-        <v>0.067474666216</v>
+        <v>0.028587888952</v>
       </c>
       <c r="R2">
-        <v>0.6072719959440001</v>
+        <v>0.257291000568</v>
       </c>
       <c r="S2">
-        <v>0.01568791400602303</v>
+        <v>0.009358194284854373</v>
       </c>
       <c r="T2">
-        <v>0.01568791400602303</v>
+        <v>0.009358194284854375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.213912</v>
       </c>
       <c r="I3">
-        <v>0.2697925022323793</v>
+        <v>0.4698873783336738</v>
       </c>
       <c r="J3">
-        <v>0.2697925022323793</v>
+        <v>0.4698873783336738</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>25.519536</v>
       </c>
       <c r="O3">
-        <v>0.5227090165892875</v>
+        <v>0.4225534031856171</v>
       </c>
       <c r="P3">
-        <v>0.5227090165892875</v>
+        <v>0.4225534031856172</v>
       </c>
       <c r="Q3">
         <v>0.606548331648</v>
@@ -632,10 +632,10 @@
         <v>5.458934984832</v>
       </c>
       <c r="S3">
-        <v>0.1410229735250501</v>
+        <v>0.1985525108288615</v>
       </c>
       <c r="T3">
-        <v>0.1410229735250501</v>
+        <v>0.1985525108288615</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.213912</v>
       </c>
       <c r="I4">
-        <v>0.2697925022323793</v>
+        <v>0.4698873783336738</v>
       </c>
       <c r="J4">
-        <v>0.2697925022323793</v>
+        <v>0.4698873783336738</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.821088</v>
+        <v>11.22377</v>
       </c>
       <c r="N4">
-        <v>20.463264</v>
+        <v>33.67131000000001</v>
       </c>
       <c r="O4">
-        <v>0.4191429108133851</v>
+        <v>0.5575307729034691</v>
       </c>
       <c r="P4">
-        <v>0.4191429108133851</v>
+        <v>0.5575307729034691</v>
       </c>
       <c r="Q4">
-        <v>0.486370858752</v>
+        <v>0.8002996960800001</v>
       </c>
       <c r="R4">
-        <v>4.377337728768</v>
+        <v>7.202697264720001</v>
       </c>
       <c r="S4">
-        <v>0.1130816147013061</v>
+        <v>0.2619766732199579</v>
       </c>
       <c r="T4">
-        <v>0.1130816147013062</v>
+        <v>0.2619766732199579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.192988</v>
+        <v>0.080443</v>
       </c>
       <c r="H5">
-        <v>0.578964</v>
+        <v>0.241329</v>
       </c>
       <c r="I5">
-        <v>0.7302074977676206</v>
+        <v>0.5301126216663262</v>
       </c>
       <c r="J5">
-        <v>0.7302074977676207</v>
+        <v>0.5301126216663261</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9462956666666668</v>
+        <v>0.4009296666666667</v>
       </c>
       <c r="N5">
-        <v>2.838887</v>
+        <v>1.202789</v>
       </c>
       <c r="O5">
-        <v>0.0581480725973275</v>
+        <v>0.01991582391091379</v>
       </c>
       <c r="P5">
-        <v>0.0581480725973275</v>
+        <v>0.01991582391091379</v>
       </c>
       <c r="Q5">
-        <v>0.1826237081186667</v>
+        <v>0.03225198517566667</v>
       </c>
       <c r="R5">
-        <v>1.643613373068</v>
+        <v>0.290267866581</v>
       </c>
       <c r="S5">
-        <v>0.04246015859130446</v>
+        <v>0.01055762962605942</v>
       </c>
       <c r="T5">
-        <v>0.04246015859130446</v>
+        <v>0.01055762962605941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.192988</v>
+        <v>0.080443</v>
       </c>
       <c r="H6">
-        <v>0.578964</v>
+        <v>0.241329</v>
       </c>
       <c r="I6">
-        <v>0.7302074977676206</v>
+        <v>0.5301126216663262</v>
       </c>
       <c r="J6">
-        <v>0.7302074977676207</v>
+        <v>0.5301126216663261</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>25.519536</v>
       </c>
       <c r="O6">
-        <v>0.5227090165892875</v>
+        <v>0.4225534031856171</v>
       </c>
       <c r="P6">
-        <v>0.5227090165892875</v>
+        <v>0.4225534031856172</v>
       </c>
       <c r="Q6">
-        <v>1.641654737856</v>
+        <v>0.684289344816</v>
       </c>
       <c r="R6">
-        <v>14.774892640704</v>
+        <v>6.158604103344</v>
       </c>
       <c r="S6">
-        <v>0.3816860430642373</v>
+        <v>0.2240008923567557</v>
       </c>
       <c r="T6">
-        <v>0.3816860430642374</v>
+        <v>0.2240008923567556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.192988</v>
+        <v>0.080443</v>
       </c>
       <c r="H7">
-        <v>0.578964</v>
+        <v>0.241329</v>
       </c>
       <c r="I7">
-        <v>0.7302074977676206</v>
+        <v>0.5301126216663262</v>
       </c>
       <c r="J7">
-        <v>0.7302074977676207</v>
+        <v>0.5301126216663261</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.821088</v>
+        <v>11.22377</v>
       </c>
       <c r="N7">
-        <v>20.463264</v>
+        <v>33.67131000000001</v>
       </c>
       <c r="O7">
-        <v>0.4191429108133851</v>
+        <v>0.5575307729034691</v>
       </c>
       <c r="P7">
-        <v>0.4191429108133851</v>
+        <v>0.5575307729034691</v>
       </c>
       <c r="Q7">
-        <v>1.316388130944</v>
+        <v>0.9028737301100002</v>
       </c>
       <c r="R7">
-        <v>11.847493178496</v>
+        <v>8.125863570990001</v>
       </c>
       <c r="S7">
-        <v>0.3060612961120789</v>
+        <v>0.2955540996835112</v>
       </c>
       <c r="T7">
-        <v>0.3060612961120789</v>
+        <v>0.2955540996835111</v>
       </c>
     </row>
   </sheetData>
